--- a/playground/module_loader/main.xlsx
+++ b/playground/module_loader/main.xlsx
@@ -376,6 +376,7 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <f>defined_in_file2</f>
         <v>44</v>
       </c>
       <c r="C2" t="s">
